--- a/meta/14.5.1.xlsx
+++ b/meta/14.5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nsdata2\sdgs\data collection and reporting\jemalex\in progress\indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{616B09AE-26C4-4822-B0CA-7DE137119949}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F73BEC1E-8577-4C3F-B267-AFA977187C8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
